--- a/biology/Zoologie/Dryopsophus_aruensis/Dryopsophus_aruensis.xlsx
+++ b/biology/Zoologie/Dryopsophus_aruensis/Dryopsophus_aruensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus aruensis est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus aruensis est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Indonésie[1]. Elle se rencontre dans les îles Aru et Misool[2].
-Les spécimens de Nouvelle-Guinée occidentale ne sont pas attribuables de manière certaine à cette espèce[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Indonésie. Elle se rencontre dans les îles Aru et Misool.
+Les spécimens de Nouvelle-Guinée occidentale ne sont pas attribuables de manière certaine à cette espèce.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 42 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 42 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de aru et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les îles Aru.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Horst, 1883 : On new and little-known frogs from the Malayan Archipelago. Notes of the Leyden Museum, vol. 5, p. 235-244 (texte intégral).</t>
         </is>
